--- a/costos.xlsx
+++ b/costos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Campo ( )</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Labores Varias ( )</t>
   </si>
   <si>
-    <t>124.46</t>
-  </si>
-  <si>
     <t>Poda ( )</t>
   </si>
   <si>
@@ -156,175 +153,106 @@
     <t>fumigación</t>
   </si>
   <si>
-    <t>1,340.59</t>
-  </si>
-  <si>
-    <t>1,325.81</t>
-  </si>
-  <si>
-    <t>588.09</t>
-  </si>
-  <si>
-    <t>1,146.33</t>
-  </si>
-  <si>
-    <t>2,368.65</t>
-  </si>
-  <si>
-    <t>1,766.90</t>
-  </si>
-  <si>
-    <t>287.29</t>
-  </si>
-  <si>
-    <t>568.83</t>
-  </si>
-  <si>
-    <t>220.73</t>
-  </si>
-  <si>
-    <t>229.44</t>
-  </si>
-  <si>
-    <t>685.65</t>
-  </si>
-  <si>
-    <t>413.21</t>
-  </si>
-  <si>
-    <t>803.34</t>
-  </si>
-  <si>
-    <t>847.66</t>
-  </si>
-  <si>
-    <t>290.39</t>
-  </si>
-  <si>
-    <t>636.35</t>
-  </si>
-  <si>
-    <t>805.55</t>
-  </si>
-  <si>
-    <t>766.02</t>
-  </si>
-  <si>
-    <t>74.68</t>
-  </si>
-  <si>
-    <t>924.79</t>
-  </si>
-  <si>
-    <t>1,201.27</t>
-  </si>
-  <si>
-    <t>525.26</t>
-  </si>
-  <si>
-    <t>519.46</t>
-  </si>
-  <si>
-    <t>150.74</t>
-  </si>
-  <si>
-    <t>275.20</t>
-  </si>
-  <si>
-    <t>268.71</t>
-  </si>
-  <si>
     <t>Monitoreo de Datos ( )</t>
   </si>
   <si>
-    <t>131.46</t>
-  </si>
-  <si>
-    <t>161.66</t>
-  </si>
-  <si>
-    <t>276.44</t>
-  </si>
-  <si>
-    <t>324.37</t>
-  </si>
-  <si>
-    <t>393.52</t>
-  </si>
-  <si>
-    <t>644.44</t>
-  </si>
-  <si>
-    <t>635.34</t>
-  </si>
-  <si>
-    <t>723.11</t>
-  </si>
-  <si>
-    <t>932.73</t>
-  </si>
-  <si>
-    <t>932.55</t>
-  </si>
-  <si>
-    <t>801.41</t>
-  </si>
-  <si>
-    <t>791.36</t>
-  </si>
-  <si>
-    <t>1,919.08</t>
-  </si>
-  <si>
-    <t>1,765.87</t>
-  </si>
-  <si>
-    <t>2,304.41</t>
-  </si>
-  <si>
-    <t>2,409.06</t>
-  </si>
-  <si>
-    <t>617.69</t>
-  </si>
-  <si>
-    <t>593.62</t>
-  </si>
-  <si>
-    <t>6,191.15</t>
-  </si>
-  <si>
-    <t>5,912.73</t>
-  </si>
-  <si>
-    <t>empaque (cf)</t>
-  </si>
-  <si>
-    <t>4,050.84</t>
-  </si>
-  <si>
-    <t>4,099.92</t>
-  </si>
-  <si>
-    <t>731.37</t>
-  </si>
-  <si>
-    <t>747.42</t>
-  </si>
-  <si>
-    <t>512.22</t>
-  </si>
-  <si>
-    <t>1,257.70</t>
-  </si>
-  <si>
-    <t>1,279.00</t>
-  </si>
-  <si>
-    <t>552.27</t>
-  </si>
-  <si>
-    <t>500.77</t>
+    <t>EMPAQUE (CF)</t>
+  </si>
+  <si>
+    <t>781.34</t>
+  </si>
+  <si>
+    <t>112.35</t>
+  </si>
+  <si>
+    <t>1,263.84</t>
+  </si>
+  <si>
+    <t>616.87</t>
+  </si>
+  <si>
+    <t>2,824.75</t>
+  </si>
+  <si>
+    <t>717.99</t>
+  </si>
+  <si>
+    <t>261.15</t>
+  </si>
+  <si>
+    <t>367.69</t>
+  </si>
+  <si>
+    <t>810.39</t>
+  </si>
+  <si>
+    <t>Seleccion ( )</t>
+  </si>
+  <si>
+    <t>323.60</t>
+  </si>
+  <si>
+    <t>687.38</t>
+  </si>
+  <si>
+    <t>1,275.07</t>
+  </si>
+  <si>
+    <t>635.90</t>
+  </si>
+  <si>
+    <t>155.72</t>
+  </si>
+  <si>
+    <t>300.57</t>
+  </si>
+  <si>
+    <t>144.85</t>
+  </si>
+  <si>
+    <t>224.56</t>
+  </si>
+  <si>
+    <t>638.95</t>
+  </si>
+  <si>
+    <t>677.34</t>
+  </si>
+  <si>
+    <t>923.70</t>
+  </si>
+  <si>
+    <t>913.54</t>
+  </si>
+  <si>
+    <t>1,756.88</t>
+  </si>
+  <si>
+    <t>2,403.63</t>
+  </si>
+  <si>
+    <t>455.41</t>
+  </si>
+  <si>
+    <t>4,078.65</t>
+  </si>
+  <si>
+    <t>128.67</t>
+  </si>
+  <si>
+    <t>3,341.30</t>
+  </si>
+  <si>
+    <t>772.00</t>
+  </si>
+  <si>
+    <t>546.42</t>
+  </si>
+  <si>
+    <t>1,294.78</t>
+  </si>
+  <si>
+    <t>590.63</t>
   </si>
 </sst>
 </file>
@@ -699,9 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -710,434 +640,352 @@
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
